--- a/data/trans_dic/P20_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho</t>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>32,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>39,51%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,28; 44,44</t>
+          <t>13,41; 62,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,66; 53,41</t>
+          <t>18,44; 73,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 33,58</t>
+          <t>20,73; 45,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 42,42</t>
+          <t>25,49; 53,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 34,92</t>
+          <t>21,91; 48,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,66; 43,8</t>
+          <t>27,41; 58,19</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>25,5%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,69; 25,77</t>
+          <t>16,15; 30,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,95; 21,58</t>
+          <t>13,29; 27,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,28; 39,88</t>
+          <t>23,76; 36,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,73; 37,12</t>
+          <t>24,27; 37,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,33; 31,63</t>
+          <t>21,91; 32,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,26; 27,97</t>
+          <t>20,84; 31,36</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>19,35%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 20,59</t>
+          <t>10,76; 24,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 17,89</t>
+          <t>6,35; 17,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,7; 34,61</t>
+          <t>20,02; 34,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,82; 34,15</t>
+          <t>20,12; 33,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,3; 26,56</t>
+          <t>17,29; 27,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 25,08</t>
+          <t>15,18; 24,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 24,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 23,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,5; 34,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,64; 33,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,56; 27,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 27,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29,24%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29,75%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16,3; 28,23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14,8; 27,71</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24,63; 33,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 34,35</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22,41; 29,46</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21,62; 28,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32941</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>50407</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38208</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54010</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>71148</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>104417</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13858; 64214</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23255; 92528</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24421; 53247</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35216; 74415</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48458; 108214</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72434; 153758</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>80915</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>85760</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>120322</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>142231</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>201237</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>227991</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59113; 110175</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>57059; 116369</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>92833; 144482</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>112725; 176235</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>165798; 244695</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>186338; 280337</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47340</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36757</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>95321</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>110523</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>142662</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>147280</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30767; 69189</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21147; 57432</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>72011; 122303</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>86182; 141816</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>111583; 174582</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>115529; 184735</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>161196</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>172924</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>253851</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>306764</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>415047</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>479688</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>123088; 213251</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>131536; 246187</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>213780; 294983</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>259255; 354124</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>363857; 478314</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>415080; 555329</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>